--- a/RUDN/Importance/Varible_muatal_in_Northern America.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Northern America.xlsx
@@ -14,14 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
   <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
     <t>Urban population</t>
   </si>
   <si>
@@ -37,12 +37,12 @@
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
@@ -82,6 +82,9 @@
     <t>Labor force, total</t>
   </si>
   <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
     <t>Female population 25-29</t>
   </si>
   <si>
@@ -157,6 +157,9 @@
     <t>Population ages 15-64, total</t>
   </si>
   <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
@@ -169,9 +172,6 @@
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
     <t>Population ages 15-64, male</t>
   </si>
   <si>
@@ -250,15 +250,15 @@
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
@@ -280,18 +280,18 @@
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
@@ -307,18 +307,18 @@
     <t>Female population 45-49</t>
   </si>
   <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>Female population 05-09</t>
   </si>
   <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
@@ -364,21 +364,21 @@
     <t>Male population 05-09</t>
   </si>
   <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 15-19</t>
   </si>
   <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
@@ -388,453 +388,453 @@
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
     <t>Population ages 0-14, female</t>
   </si>
   <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
@@ -844,129 +844,129 @@
     <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
   </si>
   <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
     <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
   </si>
   <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
     <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
   </si>
   <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
@@ -976,64 +976,79 @@
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
   </si>
   <si>
     <t>Age at first marriage, female</t>
@@ -1042,21 +1057,6 @@
     <t>Age at first marriage, male</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
     <t>Net ODA provided, total (constant 2015 US$)</t>
   </si>
   <si>
@@ -1069,15 +1069,15 @@
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
     <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
   </si>
   <si>
@@ -1087,12 +1087,12 @@
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
     <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
     <t>Bilateral ODA commitments that is untied (current US$)</t>
   </si>
   <si>
@@ -1114,16 +1114,19 @@
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
     <t>Expected years of schooling, female</t>
   </si>
   <si>
-    <t>Expected years of schooling, male</t>
+    <t>Years</t>
   </si>
   <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
-    <t>Years</t>
+    <t>Region_code</t>
   </si>
   <si>
     <t>GDP growth (annual %)</t>
@@ -1484,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1500,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.439648551696942</v>
+        <v>1.425759662808053</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1508,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.439648551696942</v>
+        <v>1.425759662808053</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1556,7 +1559,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.755800487570816</v>
+        <v>0.7526386068234436</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1564,7 +1567,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7526386068234436</v>
+        <v>0.7510385828089108</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1676,7 +1679,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7328626156188809</v>
+        <v>0.7330146461280542</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1684,7 +1687,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7324572009277515</v>
+        <v>0.7328626156188809</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1692,7 +1695,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7320603755309263</v>
+        <v>0.7324572009277515</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1700,7 +1703,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7282527413661495</v>
+        <v>0.7320603755309263</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1812,7 +1815,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7058040712994074</v>
+        <v>0.7066250893618049</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1876,7 +1879,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6852916680479331</v>
+        <v>0.6857168381159606</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1884,7 +1887,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6848381533087042</v>
+        <v>0.6852916680479331</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1892,7 +1895,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6822304435581374</v>
+        <v>0.6848381533087042</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1900,7 +1903,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.6821076166495961</v>
+        <v>0.6822304435581374</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1908,7 +1911,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.6809549333540557</v>
+        <v>0.6821076166495961</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2084,7 +2087,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6127567955130608</v>
+        <v>0.6175187002749656</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2124,7 +2127,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.593155823147185</v>
+        <v>0.5927048515844815</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2132,7 +2135,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5927048515844815</v>
+        <v>0.5875497935203444</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2140,7 +2143,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5875497935203444</v>
+        <v>0.585219315210677</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2276,7 +2279,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5400113296296107</v>
+        <v>0.5383434443139956</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2284,7 +2287,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.5383434443139956</v>
+        <v>0.5369034977022125</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2292,7 +2295,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.5369034977022125</v>
+        <v>0.5294801515221308</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2300,7 +2303,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.5294801515221308</v>
+        <v>0.5273129169311976</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2388,7 +2391,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.4871907610184549</v>
+        <v>0.4872500271491491</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2396,7 +2399,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.4848690747681967</v>
+        <v>0.4871907610184549</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2428,7 +2431,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.4770742296498809</v>
+        <v>0.4763064072769583</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2436,7 +2439,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.4763064072769583</v>
+        <v>0.4757514783271295</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2452,7 +2455,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.4700034618811562</v>
+        <v>0.4678974881537534</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2460,7 +2463,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.4678974881537534</v>
+        <v>0.4652415571192514</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2492,7 +2495,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.4520075163640656</v>
+        <v>0.4480545004536232</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2500,7 +2503,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.4520075163640656</v>
+        <v>0.4473459811270619</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2508,7 +2511,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.4520075163640656</v>
+        <v>0.4467425104178731</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2516,7 +2519,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.4520075163640656</v>
+        <v>0.4391299593862241</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2524,7 +2527,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.4480545004536232</v>
+        <v>0.43613450049105</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2532,7 +2535,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.4473459811270619</v>
+        <v>0.43613450049105</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2540,7 +2543,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.4467425104178731</v>
+        <v>0.43613450049105</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2548,7 +2551,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.4391299593862241</v>
+        <v>0.43613450049105</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2564,7 +2567,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.4211010093189231</v>
+        <v>0.4243889911783341</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2572,7 +2575,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.4182132438266519</v>
+        <v>0.4186163429776981</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2580,7 +2583,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.4151519942752537</v>
+        <v>0.4182132438266519</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2596,7 +2599,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.4128965284883437</v>
+        <v>0.4105819861953943</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2604,7 +2607,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.4105819861953943</v>
+        <v>0.4085978592112669</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2612,7 +2615,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.4085978592112669</v>
+        <v>0.4067663573797655</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3676,7 +3679,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.4067663573797655</v>
+        <v>0.3970235126153279</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3684,7 +3687,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.3945769178620389</v>
+        <v>0.3787039019890233</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3708,7 +3711,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.3614382078325722</v>
+        <v>0.3606978106636041</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3716,7 +3719,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.3614382078325722</v>
+        <v>0.3606978106636041</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3724,7 +3727,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.3606978106636041</v>
+        <v>0.3536270215082478</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3732,7 +3735,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.3606978106636041</v>
+        <v>0.3497429252342541</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3740,7 +3743,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.3524932346601755</v>
+        <v>0.3477296941240589</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3748,7 +3751,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.3509876387160373</v>
+        <v>0.3477296941240589</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3756,7 +3759,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.3497429252342541</v>
+        <v>0.3388191355802734</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3764,7 +3767,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.3388191355802734</v>
+        <v>0.3372791250075238</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3772,7 +3775,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.3348508816120195</v>
+        <v>0.3354627770713121</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3780,7 +3783,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.3348508816120195</v>
+        <v>0.3354627770713121</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3788,7 +3791,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.3348508816120195</v>
+        <v>0.3354627770713121</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3908,7 +3911,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.3307008723094071</v>
+        <v>0.3348508816120195</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3916,7 +3919,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.3307008723094071</v>
+        <v>0.3348508816120195</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3924,7 +3927,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.3307008723094071</v>
+        <v>0.3348508816120195</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3932,7 +3935,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.3281689385864126</v>
+        <v>0.3299036037312975</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3940,7 +3943,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.3260879749156687</v>
+        <v>0.3276126235721257</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3956,7 +3959,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.324801777011279</v>
+        <v>0.3244084603137984</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3964,7 +3967,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.3244084603137984</v>
+        <v>0.323475220236358</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3972,7 +3975,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.323475220236358</v>
+        <v>0.322396932814407</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4220,7 +4223,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.2961115676724353</v>
+        <v>0.2869133342221115</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4228,7 +4231,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.2961115676724353</v>
+        <v>0.2869133342221115</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4236,7 +4239,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.2914658463160933</v>
+        <v>0.2869133342221115</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4244,7 +4247,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.2869133342221115</v>
+        <v>0.2856938405440876</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4252,7 +4255,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.2869133342221115</v>
+        <v>0.2836685867778046</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4260,7 +4263,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.2869133342221115</v>
+        <v>0.2822226787835465</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4268,7 +4271,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2836685867778046</v>
+        <v>0.2822226787835465</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4276,7 +4279,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.2799728021220511</v>
+        <v>0.2821373042865534</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4300,7 +4303,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2109345728133822</v>
+        <v>0.2156964775752872</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4308,7 +4311,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.1981794707725659</v>
+        <v>0.2029413755344707</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4316,7 +4319,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1981794707725659</v>
+        <v>0.2029413755344707</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4324,7 +4327,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.1981794707725659</v>
+        <v>0.2029413755344707</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4332,7 +4335,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1981794707725659</v>
+        <v>0.2029413755344707</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4356,7 +4359,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.1866838370164035</v>
+        <v>0.181723519556086</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4364,7 +4367,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.1866838370164035</v>
+        <v>0.181723519556086</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4372,7 +4375,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.1636399070721541</v>
+        <v>0.177528795961043</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4396,7 +4399,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.1370135657215468</v>
+        <v>0.1290770577850389</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4404,7 +4407,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.1370135657215468</v>
+        <v>0.1290770577850389</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4428,7 +4431,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.09282804563891323</v>
+        <v>0.09618939017672834</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4436,7 +4439,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.09282804563891323</v>
+        <v>0.09618939017672834</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4444,7 +4447,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.04914765517140118</v>
+        <v>0.06172261166076254</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4452,7 +4455,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.04581180289281095</v>
+        <v>0.03525876628251234</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4460,7 +4463,15 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.007241977658839494</v>
+        <v>0.03054219560031068</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>0.004778923471647323</v>
       </c>
     </row>
   </sheetData>
